--- a/pred_ohlcv/54_21/2020-01-23 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ABT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>50835.62479999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>70015.49159999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -990,7 +990,7 @@
         <v>134305.6627</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>149700.3723</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>153598.1013</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>146050.1992</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>143473.4864</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>93109.9963</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>133363.5166384616</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>133544.8616384616</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>131243.9224384616</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>132587.9462384616</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>128325.4343384616</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>128686.3410384616</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>130404.7404384616</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>148631.8828384615</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>130945.33362331</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>99215.4025385663</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>99399.10223856629</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>95936.5468385663</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>94421.3953385663</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>94424.52433856631</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>50278.37163856629</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>47462.65863856629</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>20061.6220385663</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>22329.87781318497</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>18924.20151318497</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ABT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>46554.97979999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>50835.62479999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -886,7 +886,7 @@
         <v>151131.9242</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>134307.6627</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>134313.6627</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>134313.6627</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>134305.6627</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>130768.1944</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>131822.7282</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>131818.7282</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>133323.1526</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>145934.4161</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>147325.1845</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>146241.1897</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>145211.589</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>145214.717</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>143355.244</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>152794.1013</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>146050.1992</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>143473.4864</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>134085.2426</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>103304.3422</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>93109.9963</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>133363.5166384616</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>133544.8616384616</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>131243.9224384616</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>132587.9462384616</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>128325.4343384616</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>128686.3410384616</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>130404.7404384616</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>148631.8828384615</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>130945.33362331</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>99215.4025385663</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>99399.10223856629</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>95936.5468385663</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>94421.3953385663</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>94424.52433856631</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>50278.37163856629</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>47462.65863856629</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>22329.87781318497</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>18924.20151318497</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
